--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,145 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>20400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10900</v>
+        <v>12100</v>
       </c>
       <c r="E17" s="3">
-        <v>10700</v>
+        <v>13800</v>
       </c>
       <c r="F17" s="3">
         <v>10900</v>
       </c>
       <c r="G17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>18100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,113 +1311,127 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>17300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1364,26 +1443,26 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1396,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>17100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1472,11 +1563,11 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>17100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>17100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>17100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>17100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>71400</v>
+      </c>
+      <c r="F41" s="3">
         <v>74200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>55800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>31200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>36700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>29300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>25000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>15100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2205,94 +2384,106 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>2500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>10500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>23600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>36800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>37600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>40600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>47900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>47000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>38000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,135 +2532,153 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>74300</v>
+      </c>
+      <c r="F46" s="3">
         <v>79400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>63300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>36600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>41800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>34400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>41700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>50900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>40400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>42100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>46200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>52600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>54400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2479,70 +2688,82 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>3000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>8000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7400</v>
+        <v>8100</v>
       </c>
       <c r="E48" s="3">
         <v>7500</v>
       </c>
       <c r="F48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H48" s="3">
         <v>7700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2714,26 +2953,26 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>82100</v>
+      </c>
+      <c r="F54" s="3">
         <v>87200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>70900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>44400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>44200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>37100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>44300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>52000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>40600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>42400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>46400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>55900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>62700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2966,73 +3233,85 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F59" s="3">
         <v>17700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>10500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,70 +3319,76 @@
         <v>21700</v>
       </c>
       <c r="E60" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G60" s="3">
         <v>16400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>18300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>11000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F61" s="3">
         <v>10000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>9900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3131,58 +3416,70 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F62" s="3">
         <v>19600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>22900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>9400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>7200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F66" s="3">
         <v>51300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>49300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>38100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>30600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>18200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-60700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-53200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-52600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-44900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-43900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-39600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-23100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-105400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-102800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-99100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-81900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F76" s="3">
         <v>35900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>21600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>13600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>14200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>17800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>33800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>40700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>44200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>52600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>59800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>17100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,23 +4443,23 @@
       <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -4071,13 +4468,19 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>12400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>7800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,47 +5301,53 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F100" s="3">
         <v>21300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>15500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>9900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>18300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>24600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>16200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>8700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2400</v>
       </c>
       <c r="L8" s="3">
         <v>2400</v>
       </c>
       <c r="M8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>20400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,55 +959,58 @@
         <v>7900</v>
       </c>
       <c r="E12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F12" s="3">
         <v>12000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7300</v>
       </c>
       <c r="H12" s="3">
         <v>7300</v>
       </c>
       <c r="I12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E17" s="3">
         <v>12100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>18100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1346,95 +1380,101 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>17300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1449,23 +1489,23 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1569,8 +1615,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2018,87 +2088,93 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E41" s="3">
         <v>59500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>71400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>25000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2390,100 +2480,106 @@
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>2500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>23600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>40600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>47900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>47000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4500</v>
       </c>
       <c r="I43" s="3">
         <v>4500</v>
       </c>
       <c r="J43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>3600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,150 +2634,159 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>900</v>
       </c>
       <c r="Q45" s="3">
+        <v>900</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1300</v>
       </c>
       <c r="S45" s="3">
         <v>1300</v>
       </c>
       <c r="T45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E46" s="3">
         <v>63800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>74300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>79400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>50900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>52600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>54400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2694,55 +2799,58 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>3000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>1000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -2751,10 +2859,10 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>1300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2959,14 +3079,14 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2975,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E54" s="3">
         <v>72100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>87200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>52000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3239,158 +3373,167 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E59" s="3">
         <v>17900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>11000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="E61" s="3">
         <v>15000</v>
       </c>
       <c r="F61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G61" s="3">
         <v>10000</v>
       </c>
       <c r="H61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="I61" s="3">
         <v>9900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,55 +3577,58 @@
         <v>18400</v>
       </c>
       <c r="E62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F62" s="3">
         <v>20000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>7200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>3400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E66" s="3">
         <v>55100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>18200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-81400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-23100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-105400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-102800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-99100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-81900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E76" s="3">
         <v>17000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>33800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>59800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,38 +4648,41 @@
       <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>200</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>100</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,44 +5057,45 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4882,19 +5103,22 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5550,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>9900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>16200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,58 +763,61 @@
         <v>2300</v>
       </c>
       <c r="E8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2400</v>
       </c>
       <c r="M8" s="3">
         <v>2400</v>
       </c>
       <c r="N8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>20400</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7900</v>
+        <v>17700</v>
       </c>
       <c r="E12" s="3">
         <v>7900</v>
       </c>
       <c r="F12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G12" s="3">
         <v>12000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7300</v>
       </c>
       <c r="I12" s="3">
         <v>7300</v>
       </c>
       <c r="J12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>18100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1380,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1362,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1383,90 +1417,96 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>17300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,10 +1514,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1492,23 +1532,23 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1618,8 +1664,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2122,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2070,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2091,90 +2161,96 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,185 +2487,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E41" s="3">
         <v>136100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>25000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>2500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
         <v>23600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>36800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>37600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>47900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>47000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>38000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4500</v>
       </c>
       <c r="J43" s="3">
         <v>4500</v>
       </c>
       <c r="K43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>3600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,159 +2733,168 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>900</v>
       </c>
       <c r="Q45" s="3">
         <v>900</v>
       </c>
       <c r="R45" s="3">
+        <v>900</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1300</v>
       </c>
       <c r="T45" s="3">
         <v>1300</v>
       </c>
       <c r="U45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E46" s="3">
         <v>142000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>74300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>79400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>50900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>52600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>54400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2802,58 +2907,61 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>3000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>1000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -2862,10 +2970,10 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>1300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3082,14 +3202,14 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3098,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>322500</v>
+      </c>
+      <c r="E54" s="3">
         <v>149900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>87200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>52000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3376,141 +3510,150 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E59" s="3">
         <v>18700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>11000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,25 +3661,25 @@
         <v>15100</v>
       </c>
       <c r="E61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="F61" s="3">
         <v>15000</v>
       </c>
       <c r="G61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="H61" s="3">
         <v>10000</v>
       </c>
       <c r="I61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J61" s="3">
         <v>9900</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3568,67 +3711,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="E62" s="3">
         <v>18400</v>
       </c>
       <c r="F62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G62" s="3">
         <v>20000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>7200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>3400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E66" s="3">
         <v>56500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>18200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-81400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-71700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-23100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-102800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-99100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-89700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-81900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>261600</v>
+      </c>
+      <c r="E76" s="3">
         <v>93400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>33800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>59800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,38 +4850,41 @@
       <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>200</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,47 +5278,48 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -5106,19 +5327,22 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,53 +5796,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E100" s="3">
         <v>85600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>9900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E102" s="3">
         <v>76600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>16200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,165 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
         <v>2300</v>
       </c>
       <c r="F8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2400</v>
       </c>
       <c r="N8" s="3">
         <v>2400</v>
       </c>
       <c r="O8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>20400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E12" s="3">
         <v>17700</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7900</v>
       </c>
       <c r="F12" s="3">
         <v>7900</v>
       </c>
       <c r="G12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H12" s="3">
         <v>12000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7300</v>
       </c>
       <c r="J12" s="3">
         <v>7300</v>
       </c>
       <c r="K12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E17" s="3">
         <v>23300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>18100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1423,7 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1399,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1420,93 +1453,99 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>17300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,10 +1556,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1535,23 +1574,23 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1667,8 +1712,8 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,7 +2203,7 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2143,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2164,93 +2233,99 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>462900</v>
+      </c>
+      <c r="E41" s="3">
         <v>307000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>25000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2580,102 +2669,108 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>2500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>23600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>37600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>40600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>47900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>47000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>38000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4500</v>
       </c>
       <c r="K43" s="3">
         <v>4500</v>
       </c>
       <c r="L43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>3600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,168 +2831,177 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>900</v>
       </c>
       <c r="R45" s="3">
         <v>900</v>
       </c>
       <c r="S45" s="3">
+        <v>900</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1300</v>
       </c>
       <c r="U45" s="3">
         <v>1300</v>
       </c>
       <c r="V45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>467800</v>
+      </c>
+      <c r="E46" s="3">
         <v>314100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>142000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>74300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>79400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>50900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>52600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>54400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2910,61 +3014,64 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>3000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -2973,10 +3080,10 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>1300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3205,14 +3324,14 @@
       <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3221,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>476500</v>
+      </c>
+      <c r="E54" s="3">
         <v>322500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>149900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>82100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>87200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>52000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>62700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,93 +3533,97 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
         <v>6500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3513,176 +3646,185 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E59" s="3">
         <v>21500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>9300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E60" s="3">
         <v>28000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>11000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15100</v>
+        <v>13800</v>
       </c>
       <c r="E61" s="3">
         <v>15100</v>
       </c>
       <c r="F61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="G61" s="3">
         <v>15000</v>
       </c>
       <c r="H61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I61" s="3">
         <v>10000</v>
       </c>
       <c r="J61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="K61" s="3">
         <v>9900</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3714,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E62" s="3">
         <v>17800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>18400</v>
       </c>
       <c r="F62" s="3">
         <v>18400</v>
       </c>
       <c r="G62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H62" s="3">
         <v>20000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>7200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>3400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E66" s="3">
         <v>60900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>18200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-112700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-71700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-105400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-102800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-99100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-89700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-81900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>396600</v>
+      </c>
+      <c r="E76" s="3">
         <v>261600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>93400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>33800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,13 +5018,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4853,38 +5051,41 @@
       <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>200</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>100</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,50 +5498,51 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5330,19 +5550,22 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,56 +6041,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E100" s="3">
         <v>187200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>85600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E102" s="3">
         <v>170900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>76600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>16200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2300</v>
       </c>
       <c r="F8" s="3">
         <v>2300</v>
       </c>
       <c r="G8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2400</v>
       </c>
       <c r="O8" s="3">
         <v>2400</v>
       </c>
       <c r="P8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>20400</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E12" s="3">
         <v>24300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7900</v>
       </c>
       <c r="G12" s="3">
         <v>7900</v>
       </c>
       <c r="H12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I12" s="3">
         <v>12000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7300</v>
       </c>
       <c r="K12" s="3">
         <v>7300</v>
       </c>
       <c r="L12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E17" s="3">
         <v>33300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>18100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,19 +1447,20 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1435,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1456,101 +1490,107 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>17300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1559,10 +1599,10 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1577,23 +1617,23 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1609,96 +1649,102 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1715,8 +1761,8 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,19 +2261,22 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2215,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2236,96 +2306,102 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>466800</v>
+      </c>
+      <c r="E41" s="3">
         <v>462900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>307000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>59500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>74200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>25000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2672,105 +2762,111 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>2500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
         <v>23600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>36800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>40600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>47900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>47000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4500</v>
       </c>
       <c r="L43" s="3">
         <v>4500</v>
       </c>
       <c r="M43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>3600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,177 +2930,186 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
-      </c>
-      <c r="R45" s="3">
-        <v>900</v>
       </c>
       <c r="S45" s="3">
         <v>900</v>
       </c>
       <c r="T45" s="3">
+        <v>900</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1300</v>
       </c>
       <c r="V45" s="3">
         <v>1300</v>
       </c>
       <c r="W45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E46" s="3">
         <v>467800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>314100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>142000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>74300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>79400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>50900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>52600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>54400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>1200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3017,64 +3122,67 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>3000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E48" s="3">
         <v>8600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3083,10 +3191,10 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>1300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3327,14 +3447,14 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3343,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>481500</v>
+      </c>
+      <c r="E54" s="3">
         <v>476500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>322500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>149900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>82100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>87200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>52000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>62700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,82 +3664,86 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3625,8 +3759,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3649,185 +3783,194 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E59" s="3">
         <v>37500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>9300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E60" s="3">
         <v>49500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>11000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E61" s="3">
         <v>13800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>15100</v>
       </c>
       <c r="F61" s="3">
         <v>15100</v>
       </c>
       <c r="G61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="H61" s="3">
         <v>15000</v>
       </c>
       <c r="I61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="J61" s="3">
         <v>10000</v>
       </c>
       <c r="K61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="L61" s="3">
         <v>9900</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3859,73 +4002,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E62" s="3">
         <v>16500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>18400</v>
       </c>
       <c r="G62" s="3">
         <v>18400</v>
       </c>
       <c r="H62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I62" s="3">
         <v>20000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>7200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>3400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128900</v>
+      </c>
+      <c r="E66" s="3">
         <v>79900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>18200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-200200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-81400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-105400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-102800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-99100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-89700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-81900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>352600</v>
+      </c>
+      <c r="E76" s="3">
         <v>396600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>261600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>93400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>33800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>59800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,7 +5227,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -5054,38 +5253,41 @@
       <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>200</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,53 +5719,54 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5553,19 +5774,22 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,59 +6287,62 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E100" s="3">
         <v>163200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>187200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>85600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>9900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>155900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>170900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>76600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>16200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,186 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>20400</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1017,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F12" s="3">
         <v>50100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>24300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>17700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>2100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>4000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F17" s="3">
         <v>59800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>33300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10700</v>
       </c>
       <c r="L17" s="3">
         <v>10900</v>
       </c>
       <c r="M17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-57700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-31100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-21000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>18100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,167 +1514,181 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-55500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-10600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>17300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1620,26 +1700,26 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1652,76 +1732,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-56300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-31100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-21000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>17100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-7800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1746,11 +1838,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1764,11 +1856,11 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-56300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-31100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-21000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>17100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-7800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-56300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-31100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>17100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-7800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-56300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-31100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>17100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-7800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-56300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-31100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>17100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-7800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2833,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>433600</v>
+      </c>
+      <c r="F41" s="3">
         <v>466800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>462900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>307000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>136100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>59500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>71400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>74200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>55800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>31200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>36700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>30300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>29300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>25000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>15100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2765,40 +2945,46 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>2500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3">
         <v>23600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>36800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>37600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>40600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>47900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>47000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>38000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,67 +2992,73 @@
         <v>2000</v>
       </c>
       <c r="E43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G43" s="3">
         <v>2100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2800</v>
       </c>
       <c r="H43" s="3">
         <v>2400</v>
       </c>
       <c r="I43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
         <v>3600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,189 +3125,207 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>438000</v>
+      </c>
+      <c r="F46" s="3">
         <v>470000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>467800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>314100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>142000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>63800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>74300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>79400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>63300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>36600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>41800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>34400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>41700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>50900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>40400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>42100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>46200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>12300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>52600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>54400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>900</v>
+      </c>
+      <c r="F47" s="3">
         <v>1200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3125,88 +3335,100 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>3000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>8000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>7400</v>
       </c>
       <c r="K48" s="3">
         <v>7500</v>
       </c>
       <c r="L48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N48" s="3">
         <v>7700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>1000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3643,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3450,26 +3690,26 @@
       <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>434500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>448800</v>
+      </c>
+      <c r="F54" s="3">
         <v>481500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>476500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>322500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>149900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>72100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>82100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>87200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>70900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>44400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>44200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>37100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>44300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>52000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>40600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>42400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>46400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>55900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>62700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,91 +3925,99 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3762,11 +4030,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3786,198 +4054,216 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F59" s="3">
         <v>44600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>37500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>10700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>9300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F60" s="3">
         <v>53300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>49500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>28000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>23000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>21700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>21300</v>
       </c>
       <c r="J60" s="3">
         <v>21700</v>
       </c>
       <c r="K60" s="3">
+        <v>21300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="M60" s="3">
         <v>16400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>14600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>13600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>11000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F61" s="3">
         <v>58100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>13800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>15100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>15100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>15000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>15000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4005,76 +4291,88 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F62" s="3">
         <v>17400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>16500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>17800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>18400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>20000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>19600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>22900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>7200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>3400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>143200</v>
+      </c>
+      <c r="F66" s="3">
         <v>128900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>79900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>60900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>56500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>55100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>56400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>49300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>38100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>23000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>26500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>18200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>12200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-308800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-254700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-200200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-143800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-112700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-91700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-81400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-71700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-60700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-52600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-44900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-39600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-23100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-105400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-102800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-99100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-89700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-81900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>305600</v>
+      </c>
+      <c r="F76" s="3">
         <v>352600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>396600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>261600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>93400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>25800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>35900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>21600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>17800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>33800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>38300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>40700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>44200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>52600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>59800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-56300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-31100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>17100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-7800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,10 +5628,10 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -5256,23 +5654,23 @@
       <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5281,13 +5679,19 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-43000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-8500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-5000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>12400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-6700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-4100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>7800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>2900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>7300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>2000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-4000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>5700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,65 +6776,71 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>47000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>163200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>187200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>85600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>21300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>15500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>9900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>5500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F102" s="3">
         <v>3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>155900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>170900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>76600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>18300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>24600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>16200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>8700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-10700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2300</v>
       </c>
       <c r="I8" s="3">
         <v>2300</v>
       </c>
       <c r="J8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2400</v>
       </c>
       <c r="R8" s="3">
         <v>2400</v>
       </c>
       <c r="S8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>20400</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E12" s="3">
         <v>45400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7900</v>
       </c>
       <c r="J12" s="3">
         <v>7900</v>
       </c>
       <c r="K12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L12" s="3">
         <v>12000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7300</v>
       </c>
       <c r="N12" s="3">
         <v>7300</v>
       </c>
       <c r="O12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P12" s="3">
         <v>4800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E17" s="3">
         <v>56300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-53900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>18100</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,28 +1548,29 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1546,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1567,105 +1600,111 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-53600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-55500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-5100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>17300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1676,10 +1715,10 @@
         <v>700</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1688,10 +1727,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1706,23 +1745,23 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1738,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-54100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1844,8 +1889,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1862,8 +1907,8 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-54100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-54600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-54100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-54600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,28 +2470,31 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2434,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2455,105 +2524,111 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-54100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-54600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-54100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-54600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>370500</v>
+      </c>
+      <c r="E41" s="3">
         <v>413900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>433600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>466800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>462900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>307000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>136100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>59500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>25000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2951,114 +3040,120 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3">
         <v>23600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>36800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>37600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>40600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>47900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>47000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>38000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>4500</v>
       </c>
       <c r="O43" s="3">
         <v>4500</v>
       </c>
       <c r="P43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
         <v>3600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3140,195 +3238,201 @@
         <v>5100</v>
       </c>
       <c r="E45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
-      </c>
-      <c r="U45" s="3">
-        <v>900</v>
       </c>
       <c r="V45" s="3">
         <v>900</v>
       </c>
       <c r="W45" s="3">
+        <v>900</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>1300</v>
       </c>
       <c r="Y45" s="3">
         <v>1300</v>
       </c>
       <c r="Z45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E46" s="3">
         <v>421000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>438000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>470000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>467800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>314100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>142000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>74300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>50900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>40400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>46200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>52600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>54400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3341,73 +3445,76 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>1000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -3416,10 +3523,10 @@
         <v>200</v>
       </c>
       <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
         <v>1300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>200</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3658,7 +3777,7 @@
         <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3696,14 +3815,14 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3712,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>392800</v>
+      </c>
+      <c r="E54" s="3">
         <v>434500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>448800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>481500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>476500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>322500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>149900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>72100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>52000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>55900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>62700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,100 +4056,104 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E58" s="3">
         <v>18500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4036,8 +4169,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4060,212 +4193,221 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E59" s="3">
         <v>91500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>9300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E60" s="3">
         <v>118200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>11000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E61" s="3">
         <v>42300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>56300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>58100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>15100</v>
       </c>
       <c r="I61" s="3">
         <v>15100</v>
       </c>
       <c r="J61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="K61" s="3">
         <v>15000</v>
       </c>
       <c r="L61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M61" s="3">
         <v>10000</v>
       </c>
       <c r="N61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="O61" s="3">
         <v>9900</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4297,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E62" s="3">
         <v>14800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>18400</v>
       </c>
       <c r="J62" s="3">
         <v>18400</v>
       </c>
       <c r="K62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="L62" s="3">
         <v>20000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>7200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>3400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E66" s="3">
         <v>175400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>143200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>128900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>18200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-347500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-308800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-254700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-143800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-112700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-91700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-81400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-60700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-23100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-105400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-102800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-99100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-89700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-81900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E76" s="3">
         <v>259100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>305600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>352600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>396600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>261600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>33800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>44200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>52600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>59800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-54100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-54600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5634,7 +5832,7 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -5660,38 +5858,41 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>200</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>100</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-43000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>12400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,62 +6381,63 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6225,19 +6445,22 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>5700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,68 +7024,71 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>47000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>163200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>187200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>85600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>9900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5500</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -6856,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>155900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>170900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>76600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>16200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
         <v>5800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2300</v>
       </c>
       <c r="J8" s="3">
         <v>2300</v>
       </c>
       <c r="K8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2400</v>
       </c>
       <c r="S8" s="3">
         <v>2400</v>
       </c>
       <c r="T8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>20400</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E12" s="3">
         <v>32600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7900</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
       </c>
       <c r="L12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>7300</v>
       </c>
       <c r="O12" s="3">
         <v>7300</v>
       </c>
       <c r="P12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q12" s="3">
         <v>4800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E17" s="3">
         <v>43400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-53700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>18100</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,31 +1582,32 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1582,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1603,108 +1637,114 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-37600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-53100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-53600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-55500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-5100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>17300</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1718,10 +1758,10 @@
         <v>700</v>
       </c>
       <c r="G22" s="3">
+        <v>700</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1730,10 +1770,10 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1748,23 +1788,23 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1892,8 +1938,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1910,8 +1956,8 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-54100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-54100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-56300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,31 +2540,34 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2506,19 +2576,19 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2527,108 +2597,114 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-54100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-56300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-54100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-56300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>319700</v>
+      </c>
+      <c r="E41" s="3">
         <v>370500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>413900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>433600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>466800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>462900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>307000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>136100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>59500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>36700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>25000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3043,117 +3133,123 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>2500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3">
         <v>23600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>36800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>37600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>40600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>47900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>47000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>38000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4500</v>
       </c>
       <c r="P43" s="3">
         <v>4500</v>
       </c>
       <c r="Q43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
         <v>3600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,213 +3325,222 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5100</v>
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
         <v>5100</v>
       </c>
       <c r="F45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
-      </c>
-      <c r="V45" s="3">
-        <v>900</v>
       </c>
       <c r="W45" s="3">
         <v>900</v>
       </c>
       <c r="X45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>1300</v>
       </c>
       <c r="Z45" s="3">
         <v>1300</v>
       </c>
       <c r="AA45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E46" s="3">
         <v>379000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>421000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>438000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>470000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>467800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>314100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>142000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>74300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>79400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>41800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>50900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>40400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>46200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>52600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>54400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3448,76 +3553,79 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>3000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E48" s="3">
         <v>11300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>1000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3526,10 +3634,10 @@
         <v>200</v>
       </c>
       <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>200</v>
       </c>
       <c r="Z48" s="3">
         <v>200</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,7 +3900,7 @@
         <v>2100</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3818,14 +3938,14 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3834,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E54" s="3">
         <v>392800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>434500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>448800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>481500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>476500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>322500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>149900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>52000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>55900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>62700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,106 +4187,110 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E58" s="3">
         <v>22500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4172,8 +4306,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4196,221 +4330,230 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E59" s="3">
         <v>67000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>9300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E60" s="3">
         <v>99500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>118200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>11000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E61" s="3">
         <v>40600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>56300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>58100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>15100</v>
       </c>
       <c r="J61" s="3">
         <v>15100</v>
       </c>
       <c r="K61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="L61" s="3">
         <v>15000</v>
       </c>
       <c r="M61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N61" s="3">
         <v>10000</v>
       </c>
       <c r="O61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="P61" s="3">
         <v>9900</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4442,85 +4585,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E62" s="3">
         <v>24400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>18400</v>
       </c>
       <c r="K62" s="3">
         <v>18400</v>
       </c>
       <c r="L62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="M62" s="3">
         <v>20000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>7200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>3400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E66" s="3">
         <v>164600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>175400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>128900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>18200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-398700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-347500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-308800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-254700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-143800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-112700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-91700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-71700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-60700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-52600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-43900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-23100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-105400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-102800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-99100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-89700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-81900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E76" s="3">
         <v>228200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>259100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>305600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>352600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>396600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>261600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>33800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>44200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>52600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>59800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-54100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-56300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,13 +6012,14 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -5835,7 +6034,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -5861,38 +6060,41 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>200</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>100</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-43000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6800</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>5000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,65 +6602,66 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -6448,19 +6669,22 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>7300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>5700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,71 +7270,74 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>47000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>163200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>187200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>85600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>9900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-43400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>155900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>170900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>76600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>16200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2300</v>
       </c>
       <c r="K8" s="3">
         <v>2300</v>
       </c>
       <c r="L8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2400</v>
       </c>
       <c r="T8" s="3">
         <v>2400</v>
       </c>
       <c r="U8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>20400</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E12" s="3">
         <v>44900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>45700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>50100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7900</v>
       </c>
       <c r="L12" s="3">
         <v>7900</v>
       </c>
       <c r="M12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N12" s="3">
         <v>12000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>7300</v>
       </c>
       <c r="P12" s="3">
         <v>7300</v>
       </c>
       <c r="Q12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R12" s="3">
         <v>4800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>4200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E17" s="3">
         <v>55600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-53900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-53700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>18100</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,34 +1616,35 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1619,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1640,111 +1674,117 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-37600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-53100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-53600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-55500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-5100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>17300</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1761,10 +1801,10 @@
         <v>700</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1773,10 +1813,10 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1791,23 +1831,23 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-54600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1941,8 +1987,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1959,8 +2005,8 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-54600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,34 +2610,37 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2579,19 +2649,19 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2600,111 +2670,117 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>283500</v>
+      </c>
+      <c r="E41" s="3">
         <v>319700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>370500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>413900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>433600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>466800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>462900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>307000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>59500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>25000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3136,120 +3226,126 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>2500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10500</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3">
         <v>23600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>36800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>37600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>40600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>47900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>47000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>38000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>4500</v>
       </c>
       <c r="Q43" s="3">
         <v>4500</v>
       </c>
       <c r="R43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
         <v>3600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,222 +3424,231 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5100</v>
       </c>
       <c r="F45" s="3">
         <v>5100</v>
       </c>
       <c r="G45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
-      </c>
-      <c r="W45" s="3">
-        <v>900</v>
       </c>
       <c r="X45" s="3">
         <v>900</v>
       </c>
       <c r="Y45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z45" s="3">
         <v>400</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>1300</v>
       </c>
       <c r="AA45" s="3">
         <v>1300</v>
       </c>
       <c r="AB45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E46" s="3">
         <v>327000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>379000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>421000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>438000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>470000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>467800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>314100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>142000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>74300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>79400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>63300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>50900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>40400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>46200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>52600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>54400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>300</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3556,79 +3661,82 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>3000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E48" s="3">
         <v>12800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
         <v>1000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
@@ -3637,10 +3745,10 @@
         <v>200</v>
       </c>
       <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>200</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3903,7 +4023,7 @@
         <v>2100</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3941,14 +4061,14 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
         <v>100</v>
       </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3957,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E54" s="3">
         <v>342000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>392800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>434500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>448800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>481500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>476500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>322500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>87200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>52000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>55900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>62700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,112 +4318,116 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E58" s="3">
         <v>24300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4309,8 +4443,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4333,230 +4467,239 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E59" s="3">
         <v>73000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>91500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>9300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E60" s="3">
         <v>107300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>118200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>11000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E61" s="3">
         <v>39200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>56300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>58100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>15100</v>
       </c>
       <c r="K61" s="3">
         <v>15100</v>
       </c>
       <c r="L61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="M61" s="3">
         <v>15000</v>
       </c>
       <c r="N61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O61" s="3">
         <v>10000</v>
       </c>
       <c r="P61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="Q61" s="3">
         <v>9900</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4588,88 +4731,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E62" s="3">
         <v>10700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>18400</v>
       </c>
       <c r="L62" s="3">
         <v>18400</v>
       </c>
       <c r="M62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="N62" s="3">
         <v>20000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>7200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3">
         <v>3400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E66" s="3">
         <v>157200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>175400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>143200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>128900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>18200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-420200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-398700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-347500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-308800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-254700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-143800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-112700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-81400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-71700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-43900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>-23100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-105400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-102800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-99100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-89700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-81900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>170700</v>
+      </c>
+      <c r="E76" s="3">
         <v>184700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>228200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>259100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>305600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>352600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>396600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>261600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>33800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>44200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>52600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>59800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,16 +6211,17 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -6037,7 +6236,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -6063,38 +6262,41 @@
       <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>200</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>100</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-43000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>5000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>12400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,68 +6823,69 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6672,19 +6893,22 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-700</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>7300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>5700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,65 +7528,65 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>47000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>163200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>187200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>85600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>9900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5500</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-43400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>155900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>170900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>76600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>16200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E8" s="3">
         <v>27100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2300</v>
       </c>
       <c r="L8" s="3">
         <v>2300</v>
       </c>
       <c r="M8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2400</v>
       </c>
       <c r="U8" s="3">
         <v>2400</v>
       </c>
       <c r="V8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>20400</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E12" s="3">
         <v>38200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>44900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>45400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>45700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>50100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7900</v>
       </c>
       <c r="M12" s="3">
         <v>7900</v>
       </c>
       <c r="N12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O12" s="3">
         <v>12000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7300</v>
       </c>
       <c r="Q12" s="3">
         <v>7300</v>
       </c>
       <c r="R12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S12" s="3">
         <v>4800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>4200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E17" s="3">
         <v>49200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-50400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-53900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-53700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-57700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>18100</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,37 +1650,38 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1656,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1677,119 +1711,125 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-37600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-53100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-53600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-55500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-5100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>17300</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
@@ -1804,10 +1844,10 @@
         <v>700</v>
       </c>
       <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1816,10 +1856,10 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1834,23 +1874,23 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1866,91 +1906,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-54100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-54600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1990,8 +2036,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -2008,8 +2054,8 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-54100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-54600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-54600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>17100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,37 +2680,40 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2652,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2673,114 +2743,120 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1000</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-54600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-54600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E41" s="3">
         <v>283500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>319700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>370500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>413900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>433600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>466800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>462900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>307000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>59500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
         <v>25000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3229,123 +3319,129 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>2500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10500</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="3">
         <v>23600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>36800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>37600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>40600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>47900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>47000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>38000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>4500</v>
       </c>
       <c r="R43" s="3">
         <v>4500</v>
       </c>
       <c r="S43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
         <v>3600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,174 +3523,183 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5100</v>
       </c>
       <c r="G45" s="3">
         <v>5100</v>
       </c>
       <c r="H45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
-      </c>
-      <c r="X45" s="3">
-        <v>900</v>
       </c>
       <c r="Y45" s="3">
         <v>900</v>
       </c>
       <c r="Z45" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA45" s="3">
         <v>400</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>1300</v>
       </c>
       <c r="AB45" s="3">
         <v>1300</v>
       </c>
       <c r="AC45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>246700</v>
+      </c>
+      <c r="E46" s="3">
         <v>291500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>327000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>379000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>421000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>438000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>470000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>467800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>314100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>142000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>74300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>79400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>41700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
         <v>50900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>40400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>46200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>52600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>54400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3602,56 +3707,56 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>300</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>600</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3664,82 +3769,85 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>3000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>8000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E48" s="3">
         <v>43400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
         <v>1000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
@@ -3748,10 +3856,10 @@
         <v>200</v>
       </c>
       <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>200</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4026,7 +4146,7 @@
         <v>2100</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -4064,14 +4184,14 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
         <v>100</v>
       </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -4080,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>293600</v>
+      </c>
+      <c r="E54" s="3">
         <v>337000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>342000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>392800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>434500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>448800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>481500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>476500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>322500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>87200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44300</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
         <v>52000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>46400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>55900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>62700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,118 +4449,122 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>100</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E58" s="3">
         <v>27000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4446,8 +4580,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4470,239 +4604,248 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E59" s="3">
         <v>60000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>91500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>55700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>9300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E60" s="3">
         <v>92700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>118200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>11000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>42300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>56300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>58100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>15100</v>
       </c>
       <c r="L61" s="3">
         <v>15100</v>
       </c>
       <c r="M61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="N61" s="3">
         <v>15000</v>
       </c>
       <c r="O61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P61" s="3">
         <v>10000</v>
       </c>
       <c r="Q61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="R61" s="3">
         <v>9900</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4734,91 +4877,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E62" s="3">
         <v>37800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>18400</v>
       </c>
       <c r="M62" s="3">
         <v>18400</v>
       </c>
       <c r="N62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="O62" s="3">
         <v>20000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>7200</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
         <v>3400</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E66" s="3">
         <v>166300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>157200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>164600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>175400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>128900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>18200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-455500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-420200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-398700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-347500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-308800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-254700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-143800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-81400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-71700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-43900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>-23100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-105400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-102800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-99100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-89700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-81900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E76" s="3">
         <v>170700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>184700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>228200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>259100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>305600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>352600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>396600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>261600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>93400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>33800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>40700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>44200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>52600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>59800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-54600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,19 +6410,20 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -6239,7 +6438,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -6265,38 +6464,41 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>200</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>100</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
       <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-43000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>5000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>12400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,71 +7044,72 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6896,19 +7117,22 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-700</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>7300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>5700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,77 +7762,80 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>47000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>163200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>187200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>85600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>9900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5500</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>170900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>76600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>16200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>8700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,226 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="F8" s="3">
         <v>13400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>27100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3800</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
         <v>20400</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +969,14 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,94 +1099,102 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F12" s="3">
         <v>37700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>38200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>44900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>32600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>45400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>45700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>50100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>24300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>17700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>12000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>4000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>4200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>3600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>3800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>2100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>4000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>6400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>4200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AF12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,31 +1279,37 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-34000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1332,8 +1371,14 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1498,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F17" s="3">
         <v>50200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>49200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>55600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>43400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>56300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>55700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>59800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>33300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>23300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>12400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>10900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>10700</v>
       </c>
       <c r="R17" s="3">
         <v>10900</v>
       </c>
       <c r="S17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="T17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="U17" s="3">
         <v>8300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>12500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>9000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>7000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>6400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>7900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>5900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-36800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-22100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-50400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-37600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-53900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-53700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-57700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-31100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-21000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-10100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>18100</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,191 +1716,205 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-34100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-20500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-50200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-37600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-53100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-53600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-55500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-30600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-20600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-9900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-10600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-5100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>17300</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
-        <v>700</v>
-      </c>
       <c r="F22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
@@ -1847,25 +1926,25 @@
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1877,26 +1956,26 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
@@ -1909,117 +1988,129 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>118600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-51200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-38700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-54100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-54600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-56300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-31100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-21000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-11000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-10000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-6600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>17100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-5800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -2039,11 +2130,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -2057,11 +2148,11 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -2081,8 +2172,14 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-21600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-51200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-38700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-54100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-54600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-56300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-31100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-11000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-10000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-6600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>17100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-5800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-35300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-21600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-51200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-38700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-54100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-54600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-56300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-31100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-10000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-6600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>17100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2632,14 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2816,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1000</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-35300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-21600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-51200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-38700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-54100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-54600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-56300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-31100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-11000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-10000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-6600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>17100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-35300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-21600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-51200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-38700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-54100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-54600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-56300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-31100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-11000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-10000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-6600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>17100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3353,102 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>327900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>391900</v>
+      </c>
+      <c r="F41" s="3">
         <v>237700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>283500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>319700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>370500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>413900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>433600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>466800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>462900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>307000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>136100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>59500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>71400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>74200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>55800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>31200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>36700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>30300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>29300</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
         <v>25000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>4700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>8300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>4400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>15100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3322,126 +3501,138 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>2500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>10500</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="3">
         <v>23600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>36800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>37600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>40600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>47900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>47000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>38000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AF42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2200</v>
       </c>
       <c r="J43" s="3">
         <v>2000</v>
       </c>
       <c r="K43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M43" s="3">
         <v>2100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2800</v>
       </c>
       <c r="N43" s="3">
         <v>2400</v>
       </c>
       <c r="O43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>5800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
         <v>3600</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,243 +3717,261 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>1300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>1300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>424600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>403300</v>
+      </c>
+      <c r="F46" s="3">
         <v>246700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>291500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>327000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>379000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>421000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>438000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>470000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>467800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>314100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>142000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>63800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>74300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>79400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>63300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>36600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>41800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>34400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>41700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>50900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>40400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>42100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>46200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>12300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>52600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>54400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>600</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3772,106 +3981,118 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
         <v>3000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>8000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AF47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F48" s="3">
         <v>44900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>43400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>7500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>7400</v>
       </c>
       <c r="Q48" s="3">
         <v>7500</v>
       </c>
       <c r="R48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="S48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="T48" s="3">
         <v>7700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>200</v>
       </c>
       <c r="Z48" s="3">
         <v>200</v>
       </c>
       <c r="AA48" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
       </c>
       <c r="AC48" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="AD48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4177,14 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4361,14 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4149,10 +4388,10 @@
         <v>2100</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -4187,26 +4426,26 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="V52" s="3">
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="3">
         <v>100</v>
@@ -4214,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4545,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>470900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>450400</v>
+      </c>
+      <c r="F54" s="3">
         <v>293600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>337000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>342000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>392800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>434500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>448800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>481500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>476500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>322500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>149900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>72100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>82100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>87200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>70900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>44400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>44200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>37100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>44300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
         <v>52000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>40600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>42400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>46400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>13700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>55900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>62700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,127 +4709,135 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F57" s="3">
         <v>18000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8300</v>
       </c>
       <c r="I57" s="3">
         <v>10100</v>
       </c>
       <c r="J57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>3400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F58" s="3">
         <v>27700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>27000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>24300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>22500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>18500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4583,11 +4850,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4607,252 +4874,270 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Z58" s="3">
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>58900</v>
+      </c>
+      <c r="F59" s="3">
         <v>30200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>60000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>73000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>67000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>91500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>55700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>44600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>37500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>21500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>18700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>17900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>17700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>10200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>10700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>15500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>9300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>5200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>3100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>2800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>127000</v>
+      </c>
+      <c r="F60" s="3">
         <v>75800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>92700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>107300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>99500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>118200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>70800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>53300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>49500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>28000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>21700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>21300</v>
       </c>
       <c r="P60" s="3">
         <v>21700</v>
       </c>
       <c r="Q60" s="3">
+        <v>21300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="S60" s="3">
         <v>16400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>14600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>12600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>13600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>18300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>11000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>8700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>3300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>32000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>35800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>39200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>40600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>42300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>56300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>58100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>13800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>15000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>10000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>10000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>9900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>9900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4880,94 +5165,106 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>53100</v>
+      </c>
+      <c r="F62" s="3">
         <v>40100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>37800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>24400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>14800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>17400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>16500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>18400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>18400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>20000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>19600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>22900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>13500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>8100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>9400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>8300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>7200</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3">
         <v>3400</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>180100</v>
+      </c>
+      <c r="F66" s="3">
         <v>148000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>166300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>157200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>164600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>175400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>143200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>128900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>79900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>60900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>56500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>55100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>56400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>51300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>49300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>38100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>30600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>23000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>26500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>18200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>12200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>3300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-287400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-338100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-455500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-420200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-398700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-347500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-308800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-254700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-143800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-112700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-91700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-81400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-71700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-60700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-53200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-52600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-44900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-43900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-39600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-23100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-105400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-102800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-99100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-89700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-81900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F76" s="3">
         <v>145700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>170700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>184700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>228200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>259100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>305600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>352600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>396600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>261600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>93400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>25800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>35900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>21600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>13600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>14200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>17800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>33800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>38300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>40700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>44200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>52600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>59800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-35300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-21600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-51200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-38700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-54100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-54600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-56300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-31100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-11000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-10000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-6600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>17100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,25 +6806,27 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -6441,10 +6838,10 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -6467,23 +6864,23 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>100</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
@@ -6492,13 +6889,19 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7354,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>160300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-42400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-36800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-49000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-42500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-16700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-32900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-43000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-15900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-5800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-6800</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>5000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>12400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7484,102 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
-        <v>400</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-700</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7756,106 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-300</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>7800</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>2900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>7300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>2000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>5700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,83 +8250,89 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>47000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>163200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>187200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>85600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>21300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>15500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>9900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>5500</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
@@ -7851,8 +8342,14 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8434,102 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>154200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-45800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-36200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-50800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-43400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-17700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-33300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>155900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>170900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>76600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-11900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>18300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>24600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-5500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>6400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>16200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>2400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>8700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>1600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,226 +665,233 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>80300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2300</v>
       </c>
       <c r="O8" s="3">
         <v>2300</v>
       </c>
       <c r="P8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>2400</v>
       </c>
       <c r="X8" s="3">
         <v>2400</v>
       </c>
       <c r="Y8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z8" s="3">
         <v>2000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3800</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3">
         <v>20400</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -975,8 +982,11 @@
       <c r="AF9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,100 +1114,104 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E12" s="3">
         <v>51800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>44900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>7900</v>
       </c>
       <c r="P12" s="3">
         <v>7900</v>
       </c>
       <c r="Q12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R12" s="3">
         <v>12000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>7300</v>
       </c>
       <c r="T12" s="3">
         <v>7300</v>
       </c>
       <c r="U12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="V12" s="3">
         <v>4800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>3600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>4000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>6400</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>4200</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,17 +1302,20 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-34000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1311,8 +1331,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1377,8 +1397,11 @@
       <c r="AF14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,192 +1526,199 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E17" s="3">
         <v>31600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>5900</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E18" s="3">
         <v>48700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>121500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-53900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-53700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-57700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-31100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3">
         <v>18100</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,46 +1751,47 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1766,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
@@ -1787,137 +1821,143 @@
         <v>100</v>
       </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E21" s="3">
         <v>52200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>120000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-50200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-37600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-53100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-53600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-55500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>17300</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
       </c>
       <c r="G22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
@@ -1932,10 +1972,10 @@
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1944,10 +1984,10 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1962,23 +2002,23 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
@@ -1994,112 +2034,118 @@
       <c r="AF22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E23" s="3">
         <v>50900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>118600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-51200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>17100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-5800</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2112,8 +2158,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -2136,8 +2182,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -2154,8 +2200,8 @@
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -2178,8 +2224,11 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,192 +2319,201 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E26" s="3">
         <v>50800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>117300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-51200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-54100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>17100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-5800</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E27" s="3">
         <v>50800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>117300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-51200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-54100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>17100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,46 +2889,49 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2870,19 +2940,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
@@ -2891,123 +2961,129 @@
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1000</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E33" s="3">
         <v>50800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>117300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-51200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-54100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>17100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-7800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,197 +3174,206 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E35" s="3">
         <v>50800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>117300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-51200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-54100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>17100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-7800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,100 +3441,104 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>323500</v>
+      </c>
+      <c r="E41" s="3">
         <v>327900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>391900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>237700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>283500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>319700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>370500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>413900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>433600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>466800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>462900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>307000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>136100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>59500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>55800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>36700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>30300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="3">
         <v>25000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>15100</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3507,132 +3597,138 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>2500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10500</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z42" s="3">
         <v>23600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>36800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>37600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>40600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>47900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>47000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>38000</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>92500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>4500</v>
       </c>
       <c r="U43" s="3">
         <v>4500</v>
       </c>
       <c r="V43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3">
         <v>3600</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3723,200 +3819,209 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5100</v>
       </c>
       <c r="J45" s="3">
         <v>5100</v>
       </c>
       <c r="K45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>900</v>
       </c>
       <c r="AB45" s="3">
         <v>900</v>
       </c>
       <c r="AC45" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD45" s="3">
         <v>400</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>1300</v>
       </c>
       <c r="AE45" s="3">
         <v>1300</v>
       </c>
       <c r="AF45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AG45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>385200</v>
+      </c>
+      <c r="E46" s="3">
         <v>424600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>403300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>246700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>291500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>327000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>379000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>421000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>438000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>470000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>467800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>314100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>142000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>74300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>79400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>63300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>41800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>41700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="3">
         <v>50900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>40400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>42100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>46200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>12300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>52600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>54400</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3925,56 +4030,56 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>300</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>600</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3987,91 +4092,94 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
         <v>3000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>8000</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AG47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E48" s="3">
         <v>44200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>200</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
@@ -4080,10 +4188,10 @@
         <v>200</v>
       </c>
       <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD48" s="3">
         <v>1300</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>200</v>
       </c>
       <c r="AE48" s="3">
         <v>200</v>
@@ -4091,8 +4199,11 @@
       <c r="AF48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,8 +4484,11 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4394,7 +4514,7 @@
         <v>2100</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -4432,14 +4552,14 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="X52" s="3">
         <v>100</v>
       </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4448,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="3">
         <v>100</v>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,100 +4674,106 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>430600</v>
+      </c>
+      <c r="E54" s="3">
         <v>470900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>450400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>293600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>337000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>342000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>392800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>434500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>448800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>481500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>476500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>322500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>149900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>87200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>44300</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="3">
         <v>52000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>42400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>46400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>55900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>62700</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,100 +4841,104 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E57" s="3">
         <v>19300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1800</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>200</v>
-      </c>
-      <c r="AE57" s="3">
-        <v>100</v>
       </c>
       <c r="AF57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4812,35 +4946,35 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>60700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4856,8 +4990,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4880,207 +5014,216 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E59" s="3">
         <v>70800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>73000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>91500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>9300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2800</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E60" s="3">
         <v>90100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>107300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>118200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18300</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>11000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2900</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5091,55 +5234,55 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>32000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>42300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>56300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>58100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>15100</v>
       </c>
       <c r="O61" s="3">
         <v>15100</v>
       </c>
       <c r="P61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="Q61" s="3">
         <v>15000</v>
       </c>
       <c r="R61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="S61" s="3">
         <v>10000</v>
       </c>
       <c r="T61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="U61" s="3">
         <v>9900</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -5171,100 +5314,106 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E62" s="3">
         <v>51500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>18400</v>
       </c>
       <c r="P62" s="3">
         <v>18400</v>
       </c>
       <c r="Q62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="R62" s="3">
         <v>20000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3">
         <v>7200</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3">
         <v>3400</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E66" s="3">
         <v>141600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>166300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>157200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>164600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>175400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>143200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>128900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>18200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2900</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-339900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-287400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-338100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-455500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-420200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-398700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-347500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-308800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-254700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-200200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-143800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-112700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-91700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-81400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-71700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-60700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-53200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-52600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-43900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-39600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-105400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-102800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-99100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-12200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-89700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-81900</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,100 +6584,106 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>285200</v>
+      </c>
+      <c r="E76" s="3">
         <v>329200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>270300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>145700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>170700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>184700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>228200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>259100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>305600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>352600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>396600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>261600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>93400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17800</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
         <v>33800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>38300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>40700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>44200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>52600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>59800</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,197 +6774,206 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E81" s="3">
         <v>50800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>117300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-51200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-54100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>17100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-7800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,28 +7006,29 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -6844,7 +7043,7 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -6870,38 +7069,41 @@
       <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>200</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y83" s="3">
-        <v>100</v>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
       <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
       <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
-      <c r="AD83" s="3">
-        <v>0</v>
-      </c>
       <c r="AE83" s="3">
         <v>0</v>
       </c>
       <c r="AF83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,100 +7574,106 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>160300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-36800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-43000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6800</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
         <v>5000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>12400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-6700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-4100</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,80 +7706,81 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
@@ -7567,19 +7788,22 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-700</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
       <c r="AF91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,100 +7989,106 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7800</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>2900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>7300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>2000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>5700</v>
       </c>
-      <c r="AF94" s="3">
+      <c r="AG94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,86 +8499,89 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>163200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>187200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>85600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>9900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5500</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
@@ -8348,8 +8594,11 @@
       <c r="AF100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8440,96 +8689,102 @@
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-63900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>154200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-43400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>170900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>76600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>24600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>16200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>8700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1600</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>ARCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AG102"/>
+  <dimension ref="A5:AH102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,240 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2300</v>
       </c>
       <c r="P8" s="3">
         <v>2300</v>
       </c>
       <c r="Q8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>2400</v>
       </c>
       <c r="Y8" s="3">
         <v>2400</v>
       </c>
       <c r="Z8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA8" s="3">
         <v>2000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3800</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
         <v>20400</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -985,8 +992,11 @@
       <c r="AG9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1090,11 @@
       <c r="AG10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1115,103 +1128,107 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E12" s="3">
         <v>52700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>44900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>32600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7900</v>
       </c>
       <c r="Q12" s="3">
         <v>7900</v>
       </c>
       <c r="R12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="S12" s="3">
         <v>12000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7100</v>
-      </c>
-      <c r="T12" s="3">
-        <v>7300</v>
       </c>
       <c r="U12" s="3">
         <v>7300</v>
       </c>
       <c r="V12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W12" s="3">
         <v>4800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>3900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>3800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>2100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>4000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>6400</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>4200</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AH12" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1305,8 +1322,11 @@
       <c r="AG13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,11 +1334,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-34000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1334,8 +1354,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1400,8 +1420,11 @@
       <c r="AG14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1495,8 +1518,11 @@
       <c r="AG15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1527,198 +1553,205 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH16" s="3"/>
+    </row>
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E17" s="3">
         <v>65900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>7900</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>5900</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AH17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-55400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>121500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-50400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-53900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-53700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-57700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3">
         <v>18100</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1752,49 +1785,50 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1803,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
@@ -1824,126 +1858,132 @@
         <v>100</v>
       </c>
       <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-51200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>52200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>120000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-50200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-37600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-53100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-53600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-55500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-20600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-900</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
         <v>17300</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>800</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
       </c>
       <c r="H22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
@@ -1975,10 +2015,10 @@
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1987,10 +2027,10 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -2005,23 +2045,23 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
@@ -2037,118 +2077,124 @@
       <c r="AG22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>50900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>118600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-51200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-54600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-56300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>17100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>-5800</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AH23" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2161,8 +2207,8 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2185,8 +2231,8 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
@@ -2203,8 +2249,8 @@
       <c r="Y24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
@@ -2227,8 +2273,11 @@
       <c r="AG24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2322,198 +2371,207 @@
       <c r="AG25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>117300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-51200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-56300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>17100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>-5800</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AH26" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>117300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-51200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-54600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>17100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AH27" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2607,8 +2665,11 @@
       <c r="AG28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2702,8 +2763,11 @@
       <c r="AG29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2797,8 +2861,11 @@
       <c r="AG30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2892,49 +2959,52 @@
       <c r="AG31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2943,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
@@ -2964,126 +3034,132 @@
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
         <v>1000</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>117300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-51200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-54600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-56300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>17100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-7800</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AH33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3177,203 +3253,212 @@
       <c r="AG34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>117300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-51200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-54600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-56300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>17100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-7800</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AH35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AH38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3407,8 +3492,9 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH39" s="3"/>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3442,103 +3528,107 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH40" s="3"/>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E41" s="3">
         <v>323500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>327900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>391900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>237700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>283500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>319700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>370500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>413900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>433600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>466800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>462900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>307000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>136100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>59500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>71400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>74200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>55800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>36700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>30300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29300</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3">
         <v>25000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4400</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>15100</v>
       </c>
-      <c r="AG41" s="3">
+      <c r="AH41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3600,135 +3690,141 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>2500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10500</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA42" s="3">
         <v>23600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>36800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>37600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>40600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>47900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>47000</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>38000</v>
       </c>
-      <c r="AG42" s="3">
+      <c r="AH42" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>92500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>4500</v>
       </c>
       <c r="V43" s="3">
         <v>4500</v>
       </c>
       <c r="W43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
         <v>500</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3">
         <v>3600</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3822,198 +3918,207 @@
       <c r="AG44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E45" s="3">
         <v>59000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>5100</v>
       </c>
       <c r="K45" s="3">
         <v>5100</v>
       </c>
       <c r="L45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>900</v>
       </c>
       <c r="AC45" s="3">
         <v>900</v>
       </c>
       <c r="AD45" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE45" s="3">
         <v>400</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>1300</v>
       </c>
       <c r="AF45" s="3">
         <v>1300</v>
       </c>
       <c r="AG45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AH45" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>393300</v>
+      </c>
+      <c r="E46" s="3">
         <v>385200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>424600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>403300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>246700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>291500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>327000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>379000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>421000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>438000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>470000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>467800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>314100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>142000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>63800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>74300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>79400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>63300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>41800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>41700</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3">
         <v>50900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>40400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>42100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>46200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>12300</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>52600</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>54400</v>
       </c>
-      <c r="AG46" s="3">
+      <c r="AH46" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -4023,8 +4128,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -4033,56 +4138,56 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>300</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
       </c>
       <c r="T47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>600</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
@@ -4095,94 +4200,97 @@
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD47" s="3">
-        <v>0</v>
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
         <v>3000</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AG47" s="3">
         <v>8000</v>
       </c>
-      <c r="AG47" s="3">
+      <c r="AH47" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E48" s="3">
         <v>43300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>200</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
@@ -4191,10 +4299,10 @@
         <v>200</v>
       </c>
       <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE48" s="3">
         <v>1300</v>
-      </c>
-      <c r="AE48" s="3">
-        <v>200</v>
       </c>
       <c r="AF48" s="3">
         <v>200</v>
@@ -4202,8 +4310,11 @@
       <c r="AG48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4297,8 +4408,11 @@
       <c r="AG49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4392,8 +4506,11 @@
       <c r="AG50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4487,13 +4604,16 @@
       <c r="AG51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>22100</v>
       </c>
       <c r="E52" s="3">
         <v>2100</v>
@@ -4517,7 +4637,7 @@
         <v>2100</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -4555,14 +4675,14 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4571,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="3">
         <v>100</v>
@@ -4582,8 +4702,11 @@
       <c r="AG52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4677,103 +4800,109 @@
       <c r="AG53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>457700</v>
+      </c>
+      <c r="E54" s="3">
         <v>430600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>470900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>450400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>293600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>337000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>342000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>392800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>434500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>448800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>481500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>476500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>322500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>149900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>44200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>44300</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3">
         <v>52000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>40600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>42400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>46400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>13700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>55900</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>62700</v>
       </c>
-      <c r="AG54" s="3">
+      <c r="AH54" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4807,8 +4936,9 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
-    </row>
-    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH55" s="3"/>
+    </row>
+    <row r="56" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4842,103 +4972,107 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
-    </row>
-    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH56" s="3"/>
+    </row>
+    <row r="57" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E57" s="3">
         <v>13600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1800</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
         <v>500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>200</v>
-      </c>
-      <c r="AF57" s="3">
-        <v>100</v>
       </c>
       <c r="AG57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4949,35 +5083,35 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>60700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4993,8 +5127,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -5017,218 +5151,227 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE58" s="3">
         <v>100</v>
       </c>
-      <c r="AE58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E59" s="3">
         <v>76700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>73000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>9300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>5200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3100</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>2800</v>
       </c>
-      <c r="AG59" s="3">
+      <c r="AH59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E60" s="3">
         <v>90300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>127000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>107300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>99500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>118200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>53300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18300</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
         <v>11000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>8700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>3300</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>2900</v>
       </c>
-      <c r="AG60" s="3">
+      <c r="AH60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -5237,55 +5380,55 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>32000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>58100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>15100</v>
       </c>
       <c r="P61" s="3">
         <v>15100</v>
       </c>
       <c r="Q61" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="R61" s="3">
         <v>15000</v>
       </c>
       <c r="S61" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="T61" s="3">
         <v>10000</v>
       </c>
       <c r="U61" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="V61" s="3">
         <v>9900</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -5317,103 +5460,109 @@
       <c r="AG61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E62" s="3">
         <v>55100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>18400</v>
       </c>
       <c r="Q62" s="3">
         <v>18400</v>
       </c>
       <c r="R62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="S62" s="3">
         <v>20000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8300</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
         <v>7200</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3">
         <v>3400</v>
       </c>
-      <c r="AE62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AF62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5507,8 +5656,11 @@
       <c r="AG63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5602,8 +5754,11 @@
       <c r="AG64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5697,103 +5852,109 @@
       <c r="AG65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E66" s="3">
         <v>145500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>141600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>166300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>157200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>164600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>175400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>143200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>128900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
         <v>18200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>12200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3300</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>2900</v>
       </c>
-      <c r="AG66" s="3">
+      <c r="AH66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5827,8 +5988,9 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
-    </row>
-    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH67" s="3"/>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5922,8 +6084,11 @@
       <c r="AG68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -6017,8 +6182,11 @@
       <c r="AG69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -6112,8 +6280,11 @@
       <c r="AG70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6207,103 +6378,109 @@
       <c r="AG71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-356200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-339900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-287400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-338100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-455500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-420200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-398700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-347500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-308800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-254700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-200200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-143800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-112700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-91700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-81400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-71700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-60700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-53200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-52600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-44900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-43900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-39600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-23100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-105400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-102800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-99100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-12200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-89700</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>-81900</v>
       </c>
-      <c r="AG72" s="3">
+      <c r="AH72" s="3">
         <v>-76100</v>
       </c>
     </row>
-    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6397,8 +6574,11 @@
       <c r="AG73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6492,8 +6672,11 @@
       <c r="AG74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6587,103 +6770,109 @@
       <c r="AG75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E76" s="3">
         <v>285200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>329200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>270300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>145700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>170700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>184700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>228200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>259100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>305600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>352600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>396600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>261600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>93400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3">
         <v>33800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>38300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>40700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>44200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>52600</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>59800</v>
       </c>
-      <c r="AG76" s="3">
+      <c r="AH76" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6777,203 +6966,212 @@
       <c r="AG77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
-      <c r="AG80" s="2">
+      <c r="AH80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>117300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-51200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-54600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-56300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>17100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-7800</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AG81" s="3">
+      <c r="AH81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -7007,31 +7205,32 @@
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
-    </row>
-    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH82" s="3"/>
+    </row>
+    <row r="83" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -7046,7 +7245,7 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -7072,38 +7271,41 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
+      <c r="X83" s="3">
+        <v>200</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z83" s="3">
-        <v>100</v>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA83" s="3">
         <v>100</v>
       </c>
       <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
       <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
-      <c r="AE83" s="3">
-        <v>0</v>
-      </c>
       <c r="AF83" s="3">
         <v>0</v>
       </c>
       <c r="AG83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -7197,8 +7399,11 @@
       <c r="AG84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7292,8 +7497,11 @@
       <c r="AG85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7387,8 +7595,11 @@
       <c r="AG86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7482,8 +7693,11 @@
       <c r="AG87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7577,103 +7791,109 @@
       <c r="AG88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E89" s="3">
         <v>50800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>160300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-36800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-42500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-32900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-43000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6800</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>5000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>12400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-6700</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>-4100</v>
       </c>
-      <c r="AG89" s="3">
+      <c r="AH89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7707,83 +7927,84 @@
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
       <c r="AG90" s="3"/>
-    </row>
-    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH90" s="3"/>
+    </row>
+    <row r="91" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
@@ -7791,19 +8012,22 @@
         <v>0</v>
       </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-700</v>
       </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
       <c r="AF91" s="3">
         <v>0</v>
       </c>
       <c r="AG91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7897,8 +8121,11 @@
       <c r="AG92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7992,103 +8219,109 @@
       <c r="AG93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>7800</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>2900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>7300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>2000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AF94" s="3">
+      <c r="AG94" s="3">
         <v>5700</v>
       </c>
-      <c r="AG94" s="3">
+      <c r="AH94" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -8122,8 +8355,9 @@
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
-    </row>
-    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH95" s="3"/>
+    </row>
+    <row r="96" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -8217,8 +8451,11 @@
       <c r="AG96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8312,8 +8549,11 @@
       <c r="AG97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8407,8 +8647,11 @@
       <c r="AG98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8502,89 +8745,92 @@
       <c r="AG99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>163200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>187200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>85600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>15500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>9900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>1100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>5500</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
         <v>0</v>
       </c>
@@ -8597,8 +8843,11 @@
       <c r="AG100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8692,99 +8941,105 @@
       <c r="AG101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AH101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E102" s="3">
         <v>50500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-63900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>154200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-43400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>155900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>170900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>76600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>24600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>16200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>8700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>1600</v>
       </c>
-      <c r="AG102" s="3">
+      <c r="AH102" s="3">
         <v>-3200</v>
       </c>
     </row>
